--- a/data/trans_dic/P5_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de luz natural suficiente en su vivienda</t>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,52%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,72; 98,39</t>
+          <t>92,54; 98,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,49; 95,77</t>
+          <t>85,97; 95,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,84; 97,65</t>
+          <t>89,07; 97,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,71; 96,89</t>
+          <t>88,04; 96,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,47; 97,43</t>
+          <t>92,61; 97,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,67; 95,1</t>
+          <t>88,62; 95,14</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,27%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,29; 98,29</t>
+          <t>90,01; 98,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,81; 96,93</t>
+          <t>74,54; 96,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,66; 96,15</t>
+          <t>90,16; 96,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,03; 94,96</t>
+          <t>87,02; 95,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,04; 96,61</t>
+          <t>91,74; 96,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,18; 94,79</t>
+          <t>83,56; 94,59</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>93,06%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 97,06</t>
+          <t>90,86; 96,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,24; 97,07</t>
+          <t>89,79; 96,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,53; 95,52</t>
+          <t>89,5; 95,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,91; 94,9</t>
+          <t>88,12; 94,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,25; 95,47</t>
+          <t>91,52; 95,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,73; 95,34</t>
+          <t>90,52; 95,05</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,87; 98,71</t>
+          <t>94,51; 98,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,85; 97,63</t>
+          <t>90,38; 97,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,39; 97,67</t>
+          <t>93,11; 97,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,41; 96,91</t>
+          <t>91,52; 96,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,74; 97,7</t>
+          <t>94,72; 97,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,39; 96,56</t>
+          <t>92,44; 96,63</t>
         </is>
       </c>
     </row>
@@ -921,12 +922,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,22%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,67; 96,01</t>
+          <t>89,61; 95,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,23; 95,95</t>
+          <t>89,33; 95,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,51; 98,79</t>
+          <t>94,13; 98,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,5; 97,67</t>
+          <t>91,66; 97,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,89; 96,89</t>
+          <t>93,05; 96,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,51; 96,19</t>
+          <t>91,96; 96,2</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>94,19%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,51; 98,78</t>
+          <t>94,36; 98,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,06; 96,44</t>
+          <t>89,44; 96,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,63; 98,66</t>
+          <t>94,18; 98,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,42; 97,02</t>
+          <t>90,38; 97,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,29; 98,44</t>
+          <t>95,35; 98,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,47; 96,13</t>
+          <t>91,45; 96,3</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,52; 96,75</t>
+          <t>94,47; 96,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,87; 94,89</t>
+          <t>90,29; 94,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,17; 96,21</t>
+          <t>93,97; 96,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,85; 94,76</t>
+          <t>92,07; 94,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,56; 96,17</t>
+          <t>94,65; 96,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,15; 94,53</t>
+          <t>92,0; 94,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>493268</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>460011</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>438161</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>438246</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>931429</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>898256</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>474711; 504558</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>431629; 480476</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>412267; 451659</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>412751; 453619</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>903745; 950944</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>860345; 923694</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>539901</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>521155</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>486285</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>475833</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1026185</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>996988</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>507157; 553669</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>427354; 553586</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>467812; 500760</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>451673; 493882</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>992827; 1045970</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>912725; 1033305</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>467.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>639599</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>647115</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>645323</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>654610</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1284922</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1301725</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>614100; 654976</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>616291; 663718</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>621308; 661547</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>627819; 674977</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1253960; 1311634</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1266192; 1329592</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>625.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>537.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>621077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>615082</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>673732</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>648536</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1294810</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1263618</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>603391; 630358</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>584967; 631603</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>654827; 685594</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>627478; 664544</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1270881; 1310745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1232094; 1287984</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>477191</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>461382</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>487694</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>484882</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>964886</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>946264</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>458730; 490717</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>442484; 475255</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>472935; 495954</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>466589; 496857</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>943854; 982388</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>923580; 966244</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>532248</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>509737</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>708712</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>679853</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1240959</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1189590</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>516018; 540151</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>487650; 528075</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>688555; 719702</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>648655; 698697</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1218519; 1255399</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1154988; 1216146</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1290.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1268.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2815.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2350.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3303284</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3214482</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3439906</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3381960</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6743190</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6596442</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3258718; 3337116</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3114684; 3268076</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3394943; 3472806</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3326204; 3426073</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6684334; 6795707</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6497118; 6665571</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>